--- a/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>The type of the device version, e.g. manufacturer, approved, internal.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.type` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+    <t>Element `DeviceDefinition.version.type` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -425,7 +425,7 @@
     <t>Note that the module of the device would not need to be tracked as a separate device, e.g., using different UDI, thus would typically involve one or more software modules. For example, a device may involve two software modules each on a different version.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.component` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+    <t>Element `DeviceDefinition.version.component` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:component.id</t>
@@ -456,7 +456,7 @@
     <t>The version text.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.value` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+    <t>Element `DeviceDefinition.version.value` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -818,7 +818,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="108.71484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="151.1015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `DeviceDefinition.version` 0..* `string`
 *  R4: `DeviceDefinition.version` 0..* `string`
 Following are the generation technical comments:
-Element `DeviceDefinition.version` is mapped to FHIR R4 element `DeviceDefinition.version`.</t>
+Element `DeviceDefinition.version` has is mapped to FHIR R4 element `DeviceDefinition.version`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>The type of the device version, e.g. manufacturer, approved, internal.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.type` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.type` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
+Element `DeviceDefinition.version.type` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +429,8 @@
     <t>Note that the module of the device would not need to be tracked as a separate device, e.g., using different UDI, thus would typically involve one or more software modules. For example, a device may involve two software modules each on a different version.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.component` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.component` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
+Element `DeviceDefinition.version.component` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:component.id</t>
@@ -435,6 +440,9 @@
   </si>
   <si>
     <t>Extension.extension:component.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.component</t>
   </si>
   <si>
     <t>Extension.extension:component.value[x]</t>
@@ -456,7 +464,8 @@
     <t>The version text.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.value` is will have a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.value` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
+Element `DeviceDefinition.version.value` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -466,6 +475,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -818,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.1015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="145.11328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1624,7 +1636,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1666,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1681,15 +1693,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1712,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1769,7 +1781,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1781,21 +1793,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1820,16 +1832,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2001,7 +2013,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2106,7 +2118,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2149,7 +2161,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2191,7 +2203,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2206,15 +2218,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2237,16 +2249,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2296,7 +2308,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2308,21 +2320,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2347,14 +2359,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2423,7 +2435,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2526,7 +2538,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2631,7 +2643,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2674,7 +2686,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2716,7 +2728,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2731,15 +2743,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2765,10 +2777,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2819,7 +2831,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2831,18 +2843,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2924,7 +2936,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -2939,15 +2951,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2970,13 +2982,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3027,7 +3039,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3039,10 +3051,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `DeviceDefinition.version` 0..* `string`
 *  R4: `DeviceDefinition.version` 0..* `string`
 Following are the generation technical comments:
-Element `DeviceDefinition.version` has is mapped to FHIR R4 element `DeviceDefinition.version`, but has no comparisons.</t>
+Element `DeviceDefinition.version` is mapped to FHIR R4 element `DeviceDefinition.version` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>The type of the device version, e.g. manufacturer, approved, internal.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.type` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
-Element `DeviceDefinition.version.type` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.type` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -429,8 +425,7 @@
     <t>Note that the module of the device would not need to be tracked as a separate device, e.g., using different UDI, thus would typically involve one or more software modules. For example, a device may involve two software modules each on a different version.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.component` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
-Element `DeviceDefinition.version.component` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.component` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:component.id</t>
@@ -440,9 +435,6 @@
   </si>
   <si>
     <t>Extension.extension:component.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.component</t>
   </si>
   <si>
     <t>Extension.extension:component.value[x]</t>
@@ -464,8 +456,7 @@
     <t>The version text.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version.value` is part of an existing definition because parent element `DeviceDefinition.version` requires a cross-version extension.
-Element `DeviceDefinition.version.value` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.version.value` has a context of DeviceDefinition.version based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -475,9 +466,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -1636,72 +1624,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1724,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1781,7 +1769,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1793,21 +1781,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1832,16 +1820,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1910,7 +1898,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2013,7 +2001,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2118,7 +2106,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2161,7 +2149,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2203,30 +2191,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2249,16 +2237,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2308,7 +2296,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2320,21 +2308,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2359,14 +2347,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2435,7 +2423,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2538,7 +2526,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2643,7 +2631,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2686,7 +2674,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2728,30 +2716,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2777,10 +2765,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2831,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2843,18 +2831,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2936,30 +2924,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2982,13 +2970,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3039,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3051,10 +3039,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
